--- a/docs/Data/TyeeCatch_Undersize_and_Effort.xlsx
+++ b/docs/Data/TyeeCatch_Undersize_and_Effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1F12D6-1661-4078-9EFF-426A23046A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C45201-079E-42DF-80C7-063717BA0D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACB119B3-1D30-4C44-AEE2-D8AEAE98B7AC}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACB119B3-1D30-4C44-AEE2-D8AEAE98B7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>Boats.PM</t>
   </si>
   <si>
-    <t># Undersize</t>
+    <t>UndersizeFish</t>
   </si>
 </sst>
 </file>
@@ -415,10 +415,10 @@
   <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +427,7 @@
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -470,6 +470,18 @@
         <f>DATE(C2,B2,A2)</f>
         <v>44757</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -485,6 +497,18 @@
         <f t="shared" ref="D3:D67" si="0">DATE(C3,B3,A3)</f>
         <v>44758</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -500,6 +524,18 @@
         <f t="shared" si="0"/>
         <v>44759</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -515,6 +551,18 @@
         <f t="shared" si="0"/>
         <v>44760</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -530,6 +578,18 @@
         <f t="shared" si="0"/>
         <v>44761</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -545,6 +605,18 @@
         <f t="shared" si="0"/>
         <v>44762</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -560,6 +632,18 @@
         <f t="shared" si="0"/>
         <v>44763</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -575,6 +659,18 @@
         <f t="shared" si="0"/>
         <v>44764</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -590,6 +686,18 @@
         <f t="shared" si="0"/>
         <v>44765</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -605,6 +713,18 @@
         <f t="shared" si="0"/>
         <v>44766</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -620,6 +740,18 @@
         <f t="shared" si="0"/>
         <v>44767</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -635,6 +767,18 @@
         <f t="shared" si="0"/>
         <v>44768</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -653,6 +797,9 @@
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>6</v>
       </c>
@@ -677,8 +824,14 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>6</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -698,8 +851,14 @@
       <c r="E16">
         <v>3</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -725,6 +884,9 @@
       <c r="G17">
         <v>12</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -743,8 +905,14 @@
       <c r="E18">
         <v>5</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18">
         <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,8 +932,14 @@
       <c r="E19">
         <v>2</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19">
         <v>6</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -791,6 +965,9 @@
       <c r="G20">
         <v>16</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -815,6 +992,9 @@
       <c r="G21">
         <v>14</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -839,6 +1019,9 @@
       <c r="G22">
         <v>12</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -998,6 +1181,9 @@
       <c r="G28">
         <v>20</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1049,6 +1235,9 @@
       <c r="G30">
         <v>27</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1505,6 +1694,9 @@
       <c r="G47">
         <v>46</v>
       </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -1637,6 +1829,9 @@
       <c r="G52">
         <v>5</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -1715,6 +1910,9 @@
       <c r="G55">
         <v>38</v>
       </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -1739,6 +1937,9 @@
       <c r="G56">
         <v>3</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -1952,6 +2153,9 @@
       <c r="G64">
         <v>31</v>
       </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -1967,8 +2171,17 @@
         <f t="shared" si="0"/>
         <v>44392</v>
       </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
       <c r="G65">
         <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -1985,6 +2198,18 @@
         <f t="shared" si="0"/>
         <v>44393</v>
       </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -2003,6 +2228,15 @@
       <c r="E67">
         <v>1</v>
       </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -2021,8 +2255,14 @@
       <c r="E68">
         <v>1</v>
       </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
       <c r="G68">
         <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2039,8 +2279,17 @@
         <f t="shared" si="1"/>
         <v>44396</v>
       </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
       <c r="G69">
         <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2060,8 +2309,14 @@
       <c r="E70">
         <v>1</v>
       </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="G70">
         <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2081,6 +2336,15 @@
       <c r="E71">
         <v>1</v>
       </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -2099,6 +2363,15 @@
       <c r="E72">
         <v>1</v>
       </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -2117,6 +2390,12 @@
       <c r="E73">
         <v>1</v>
       </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
       <c r="H73">
         <v>1</v>
       </c>
@@ -2138,8 +2417,14 @@
       <c r="E74">
         <v>1</v>
       </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
       <c r="G74">
         <v>2</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2159,8 +2444,14 @@
       <c r="E75">
         <v>1</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="G75">
         <v>2</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2180,6 +2471,15 @@
       <c r="E76">
         <v>2</v>
       </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -2198,8 +2498,14 @@
       <c r="E77">
         <v>2</v>
       </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="G77">
         <v>3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2219,6 +2525,9 @@
       <c r="E78">
         <v>1</v>
       </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
       <c r="G78">
         <v>5</v>
       </c>
@@ -2249,6 +2558,9 @@
       <c r="G79">
         <v>5</v>
       </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -2294,6 +2606,9 @@
       <c r="E81">
         <v>5</v>
       </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
       <c r="G81">
         <v>5</v>
       </c>
@@ -2324,6 +2639,9 @@
       <c r="G82">
         <v>8</v>
       </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -2348,6 +2666,9 @@
       <c r="G83">
         <v>12</v>
       </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -2372,6 +2693,9 @@
       <c r="G84">
         <v>11</v>
       </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -3548,8 +3872,17 @@
         <f t="shared" si="1"/>
         <v>44027</v>
       </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
       <c r="F128">
         <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3566,8 +3899,17 @@
         <f t="shared" si="1"/>
         <v>44028</v>
       </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
       <c r="F129">
         <v>1</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3587,6 +3929,15 @@
       <c r="E130">
         <v>1</v>
       </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
@@ -3608,6 +3959,12 @@
       <c r="F131">
         <v>1</v>
       </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
@@ -3626,8 +3983,14 @@
       <c r="E132">
         <v>1</v>
       </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
       <c r="G132">
         <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3650,6 +4013,12 @@
       <c r="F133">
         <v>2</v>
       </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
@@ -3668,8 +4037,14 @@
       <c r="E134">
         <v>1</v>
       </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="G134">
         <v>2</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,8 +4064,14 @@
       <c r="E135">
         <v>1</v>
       </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
       <c r="G135">
         <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3710,8 +4091,14 @@
       <c r="E136">
         <v>1</v>
       </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
       <c r="G136">
         <v>2</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3731,6 +4118,9 @@
       <c r="E137">
         <v>1</v>
       </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
       <c r="G137">
         <v>3</v>
       </c>
@@ -3761,6 +4151,9 @@
       <c r="G138">
         <v>2</v>
       </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
@@ -3779,8 +4172,14 @@
       <c r="E139">
         <v>2</v>
       </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
       <c r="G139">
         <v>5</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -3800,6 +4199,9 @@
       <c r="E140">
         <v>2</v>
       </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
       <c r="G140">
         <v>3</v>
       </c>
@@ -3824,8 +4226,14 @@
       <c r="E141">
         <v>6</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
       <c r="G141">
         <v>7</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -3845,8 +4253,14 @@
       <c r="E142">
         <v>3</v>
       </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
       <c r="G142">
         <v>3</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -3872,6 +4286,9 @@
       <c r="G143">
         <v>6</v>
       </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
@@ -3950,6 +4367,9 @@
       <c r="G146">
         <v>12</v>
       </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
@@ -4001,6 +4421,9 @@
       <c r="G148">
         <v>18</v>
       </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
@@ -4073,6 +4496,9 @@
       <c r="E151">
         <v>10</v>
       </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
       <c r="G151">
         <v>7</v>
       </c>
@@ -4421,6 +4847,9 @@
       <c r="E164">
         <v>12</v>
       </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
       <c r="G164">
         <v>10</v>
       </c>
@@ -4883,6 +5312,9 @@
       <c r="G181">
         <v>11</v>
       </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
@@ -4988,6 +5420,9 @@
       <c r="G185">
         <v>24</v>
       </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
@@ -5012,6 +5447,9 @@
       <c r="G186">
         <v>31</v>
       </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
@@ -5036,6 +5474,9 @@
       <c r="G187">
         <v>20</v>
       </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -5087,6 +5528,9 @@
       <c r="G189">
         <v>21</v>
       </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
@@ -5111,6 +5555,9 @@
       <c r="G190">
         <v>27</v>
       </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
@@ -5126,8 +5573,17 @@
         <f t="shared" si="2"/>
         <v>43661</v>
       </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
       <c r="F191">
         <v>1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5144,6 +5600,18 @@
         <f t="shared" si="2"/>
         <v>43662</v>
       </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
@@ -5162,6 +5630,15 @@
       <c r="E193">
         <v>1</v>
       </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
@@ -5180,6 +5657,15 @@
       <c r="E194">
         <v>1</v>
       </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
@@ -5195,8 +5681,17 @@
         <f t="shared" si="2"/>
         <v>43665</v>
       </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
       <c r="G195">
         <v>2</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -5216,6 +5711,15 @@
       <c r="E196">
         <v>1</v>
       </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
@@ -5231,8 +5735,17 @@
         <f t="shared" si="3"/>
         <v>43667</v>
       </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
       <c r="G197">
         <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -5249,8 +5762,17 @@
         <f t="shared" si="3"/>
         <v>43668</v>
       </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
       <c r="G198">
         <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -5267,8 +5789,17 @@
         <f t="shared" si="3"/>
         <v>43669</v>
       </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
       <c r="G199">
         <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -5288,8 +5819,14 @@
       <c r="E200">
         <v>1</v>
       </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
       <c r="G200">
         <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -5309,8 +5846,14 @@
       <c r="E201">
         <v>1</v>
       </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
       <c r="G201">
         <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -5327,11 +5870,17 @@
         <f t="shared" si="3"/>
         <v>43672</v>
       </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
       <c r="F202">
         <v>1</v>
       </c>
       <c r="G202">
         <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5348,11 +5897,17 @@
         <f t="shared" si="3"/>
         <v>43673</v>
       </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
       <c r="F203">
         <v>1</v>
       </c>
       <c r="G203">
         <v>1</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -5369,8 +5924,17 @@
         <f t="shared" si="3"/>
         <v>43674</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
       <c r="F204">
         <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -5396,6 +5960,9 @@
       <c r="G205">
         <v>1</v>
       </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
@@ -5411,8 +5978,17 @@
         <f t="shared" si="3"/>
         <v>43676</v>
       </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
       <c r="G206">
         <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -5429,8 +6005,17 @@
         <f t="shared" si="3"/>
         <v>43677</v>
       </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
       <c r="G207">
         <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -5450,6 +6035,9 @@
       <c r="E208">
         <v>3</v>
       </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
       <c r="G208">
         <v>1</v>
       </c>
@@ -5471,11 +6059,17 @@
         <f t="shared" si="3"/>
         <v>43679</v>
       </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
       <c r="F209">
         <v>1</v>
       </c>
       <c r="G209">
         <v>4</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -5657,6 +6251,9 @@
       <c r="E216">
         <v>10</v>
       </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
       <c r="G216">
         <v>24</v>
       </c>
@@ -6137,6 +6734,12 @@
         <f t="shared" si="3"/>
         <v>43704</v>
       </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
       <c r="G234">
         <v>40</v>
       </c>
@@ -6238,6 +6841,9 @@
       <c r="D238" s="1">
         <f t="shared" si="3"/>
         <v>43708</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
       </c>
       <c r="F238">
         <v>12</v>
